--- a/01_開発プロセス/02_要求対応/STM32_F303K8 _ IO端子使用検討.xlsx
+++ b/01_開発プロセス/02_要求対応/STM32_F303K8 _ IO端子使用検討.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Ob-tmp</t>
     <phoneticPr fontId="1"/>
@@ -257,9 +257,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -274,6 +271,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,13 +636,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="7"/>
+    <col min="1" max="2" width="9" style="6"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="7"/>
+    <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.15">
@@ -654,61 +656,61 @@
       <c r="U2"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
       <c r="U3"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
       <c r="U4"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B5"/>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="U5"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B6"/>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <v>42637</v>
       </c>
       <c r="U6"/>
@@ -751,684 +753,686 @@
     </row>
     <row r="16" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16"/>
-      <c r="T16" s="7"/>
+      <c r="T16" s="6"/>
       <c r="U16"/>
     </row>
     <row r="17" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17"/>
-      <c r="T17" s="6"/>
+      <c r="T17" s="5"/>
       <c r="U17"/>
     </row>
     <row r="18" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="3"/>
+      <c r="T18" s="2"/>
     </row>
     <row r="19" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
     </row>
     <row r="20" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="T20" s="3"/>
+      <c r="T20" s="2"/>
     </row>
     <row r="21" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
     </row>
     <row r="22" spans="2:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3"/>
+      <c r="T22" s="2"/>
     </row>
     <row r="23" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
     </row>
     <row r="24" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="3"/>
+      <c r="T24" s="2"/>
     </row>
     <row r="25" spans="2:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T26" s="3"/>
+      <c r="T26" s="2"/>
     </row>
     <row r="27" spans="2:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
     <row r="28" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T28" s="3"/>
+      <c r="T28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
     </row>
     <row r="30" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T30" s="3"/>
+      <c r="T30" s="2"/>
     </row>
     <row r="31" spans="2:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
     </row>
     <row r="32" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="3"/>
+      <c r="T32" s="2"/>
     </row>
     <row r="33" spans="2:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
     </row>
     <row r="34" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T34" s="3"/>
+      <c r="T34" s="2"/>
     </row>
     <row r="35" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
     </row>
     <row r="36" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T36" s="3"/>
+      <c r="T36" s="2"/>
     </row>
     <row r="37" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
     </row>
     <row r="38" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T38" s="3"/>
+      <c r="T38" s="2"/>
     </row>
     <row r="39" spans="2:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
     </row>
     <row r="40" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="2"/>
     </row>
     <row r="41" spans="2:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
     </row>
     <row r="42" spans="2:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3"/>
+      <c r="T42" s="2"/>
     </row>
     <row r="43" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
     </row>
     <row r="44" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3"/>
+      <c r="T44" s="2"/>
     </row>
     <row r="45" spans="2:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
     </row>
     <row r="46" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T46" s="3"/>
+      <c r="T46" s="2"/>
     </row>
     <row r="49" spans="19:19" x14ac:dyDescent="0.15">
       <c r="S49" s="1" t="s">

--- a/01_開発プロセス/02_要求対応/STM32_F303K8 _ IO端子使用検討.xlsx
+++ b/01_開発プロセス/02_要求対応/STM32_F303K8 _ IO端子使用検討.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Ob-tmp</t>
     <phoneticPr fontId="1"/>
@@ -157,6 +157,10 @@
     <rPh sb="3" eb="4">
       <t>ツカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPGA_SPI_NSS</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -636,9 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1154,7 +1156,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T34" s="2"/>
     </row>
